--- a/biology/Histoire de la zoologie et de la botanique/Société_zoologique_de_Londres/Société_zoologique_de_Londres.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_zoologique_de_Londres/Société_zoologique_de_Londres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La société zoologique de Londres (Zoological Society of London ou ZSL) est une société savante de zoologie fondée en avril 1826 par Sir Thomas Stamford Raffles (1781-1826) et par d’autres naturalistes renommés comme Lord Auckland (1784-1849), Sir Humphry Davy (1778-1829), Joseph Sabine (1770-1837), Nicholas Aylward Vigors (1785-1840). Le but de la société est d’étudier les animaux de façon comparative.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est Raffles qui en est son premier président mais meurt peu de temps après sa nomination, en juillet 1826. Le marquis de Lansdowne (1780-1863), qui lui succède, obtient de la couronne britannique l'attribution d'une parcelle à Regent's Park pour un loyer symbolique afin d'y installer le Zoo de Londres. Il dirige la construction des premiers bâtiments de la Society. La société reçoit une charte royale de George IV le 27 mars 1829.
 Elle fonde en 1830 la revue Journal of Zoology. En avril 1828, le jardin de la société zoologique est ouvert aux membres. En 1831, Guillaume IV offre la ménagerie royale à la société zoologique et en 1847, le public est admis, l’entrée étant payante. Les londoniens surnommèrent rapidement les jardins le « Zoo ». Aujourd’hui, celui-ci abrite la plus grande collection d’animaux vivants du monde.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Institut de zoologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de zoologie est l'organisme de recherche scientifique de la ZSL.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Parcs zoologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société dirige le zoo de Londres et le zoo de Whipsnade (Bedfordshire).
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La ZSL édite quatre revues scientifiques : Journal of Zoology (une des principales revues mondiales traitant de zoologie), Animal Conservation (revue traitant de conservation des espèces animales et de leurs habitats), International Zoo Yearbook (revue traitant du rôle des parcs zoologiques dans la conservation de la biodiversité des espèces et des habitats) et Remote Sensing in Ecology and Conservation (revue en libre accès traitant de télédétection en écologie et en conservation).
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Liste des membres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vous pouvez consulter ici la liste des membres de la société zoologique de Londres. On retrouve souvent, dans la littérature anglo-saxonne, l'abréviation FZS signifiant Fellow of Zoological Society (membre de la Société zoologique).</t>
         </is>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_zoologique_de_Londres</t>
+          <t>Société_zoologique_de_Londres</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,9 +690,11 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présidence a été occupée par les personnalités suivantes[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présidence a été occupée par les personnalités suivantes :
 Sir Stamford Raffles (1826)
 Henry Petty-Fitzmaurice (1827–1831)
 Edward Smith-Stanley (1831–1851)
